--- a/ka/卡记录.xlsx
+++ b/ka/卡记录.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\github-git\ka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BD20B5-8A92-4BDA-9D18-300F84E2F16C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F19E5E-C6F1-4901-BA82-28728BBE2AEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,14 @@
   </si>
   <si>
     <t>均价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jx贾羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb429069_2012</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -503,11 +511,11 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1">
-        <f>SUM(C2:G2)</f>
+        <f t="shared" ref="H2:H13" si="0">SUM(C2:G2)</f>
         <v>13</v>
       </c>
       <c r="I2" s="1">
-        <f>B2*H2</f>
+        <f t="shared" ref="I2:I13" si="1">B2*H2</f>
         <v>1287</v>
       </c>
     </row>
@@ -528,11 +536,11 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1">
-        <f>SUM(C3:G3)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I3" s="1">
-        <f>B3*H3</f>
+        <f t="shared" si="1"/>
         <v>475</v>
       </c>
     </row>
@@ -551,11 +559,11 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1">
-        <f>SUM(C4:G4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I4" s="1">
-        <f>B4*H4</f>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
     </row>
@@ -574,11 +582,11 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
-        <f>SUM(C5:G5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I5" s="1">
-        <f>B5*H5</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
@@ -597,11 +605,11 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
-        <f>SUM(C6:G6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I6" s="1">
-        <f>B6*H6</f>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
     </row>
@@ -620,11 +628,11 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1">
-        <f>SUM(C7:G7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I7" s="1">
-        <f>B7*H7</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
@@ -643,11 +651,11 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1">
-        <f>SUM(C8:G8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I8" s="1">
-        <f>B8*H8</f>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
     </row>
@@ -666,11 +674,11 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1">
-        <f>SUM(C9:G9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I9" s="1">
-        <f>B9*H9</f>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
     </row>
@@ -689,11 +697,11 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1">
-        <f>SUM(C10:G10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I10" s="1">
-        <f>B10*H10</f>
+        <f t="shared" si="1"/>
         <v>228</v>
       </c>
     </row>
@@ -712,36 +720,82 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1">
-        <f>SUM(C11:G11)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I11" s="1">
-        <f>B11*H11</f>
+        <f t="shared" si="1"/>
         <v>888.84</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>114</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>110</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4">
-        <f ca="1">I12/H12</f>
-        <v>100.79542857142857</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
+      <c r="B14" s="4">
+        <f ca="1">I14/H14</f>
+        <v>101.94461538461539</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H14" s="4">
         <f ca="1">SUM(INDIRECT("H2:H"&amp;ROW()-1))</f>
-        <v>35</v>
-      </c>
-      <c r="I12" s="2">
+        <v>39</v>
+      </c>
+      <c r="I14" s="2">
         <f ca="1">SUM(INDIRECT("I2:I"&amp;ROW()-1))</f>
-        <v>3527.84</v>
+        <v>3975.84</v>
       </c>
     </row>
   </sheetData>

--- a/ka/卡记录.xlsx
+++ b/ka/卡记录.xlsx
@@ -1,31 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\github-git\ka\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F19E5E-C6F1-4901-BA82-28728BBE2AEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -33,15 +17,18 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总张数</t>
+  </si>
+  <si>
+    <t>总价</t>
   </si>
   <si>
     <t>tb083920766</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zcvagabond</t>
@@ -50,75 +37,207 @@
     <t>tb6836266_2012</t>
   </si>
   <si>
+    <t>a81711352</t>
+  </si>
+  <si>
+    <t>hobenben7</t>
+  </si>
+  <si>
+    <t>egrenxing</t>
+  </si>
+  <si>
+    <t>vinly0930</t>
+  </si>
+  <si>
+    <t>hitboy1010</t>
+  </si>
+  <si>
+    <t>fly乖乖杨</t>
+  </si>
+  <si>
+    <t>jx贾羽</t>
+  </si>
+  <si>
+    <t>tb429069_2012</t>
+  </si>
+  <si>
+    <t>均价</t>
+  </si>
+  <si>
     <t>总数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总张数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a81711352</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hobenben7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>egrenxing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vinly0930</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitboy1010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fly乖乖杨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>均价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jx贾羽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb429069_2012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,8 +250,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -142,48 +447,334 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -232,7 +823,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -267,7 +858,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -441,366 +1032,457 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="I1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
         <v>99</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>3</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2">
         <f t="shared" ref="H2:H13" si="0">SUM(C2:G2)</f>
         <v>13</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <f t="shared" ref="I2:I13" si="1">B2*H2</f>
         <v>1287</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>95</v>
+      </c>
+      <c r="C3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>95</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <f t="shared" si="1"/>
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
         <v>99</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
         <v>120</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
         <v>106</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
         <v>110</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
         <v>108</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
         <v>106</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1">
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
         <v>114</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <f t="shared" si="1"/>
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1">
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
         <v>98.76</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>9</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <f t="shared" si="1"/>
         <v>888.84</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1">
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
         <v>114</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>2</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <f t="shared" si="1"/>
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1">
+    <row r="13" ht="13" customHeight="1" spans="1:9">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
         <v>110</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>2</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="2">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4">
-        <f ca="1">I14/H14</f>
-        <v>101.94461538461539</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="4">
+    <row r="14" spans="1:9">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2">
+        <v>108</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>107.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2">
+        <v>100</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2">
+        <v>108</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2">
+        <v>100</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2">
+        <v>100</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3">
+        <f ca="1">I19/H19</f>
+        <v>102.078181818182</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="3">
         <f ca="1">SUM(INDIRECT("H2:H"&amp;ROW()-1))</f>
-        <v>39</v>
-      </c>
-      <c r="I14" s="2">
+        <v>44</v>
+      </c>
+      <c r="I19" s="5">
         <f ca="1">SUM(INDIRECT("I2:I"&amp;ROW()-1))</f>
-        <v>3975.84</v>
+        <v>4491.44</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ka/卡记录.xlsx
+++ b/ka/卡记录.xlsx
@@ -77,14 +77,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,48 +554,51 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -612,97 +608,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,10 +1031,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1364,7 +1357,7 @@
     <row r="14" spans="1:9">
       <c r="A14" s="2"/>
       <c r="B14" s="2">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -1377,13 +1370,13 @@
         <v>1</v>
       </c>
       <c r="I14" s="2">
-        <v>107.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2"/>
       <c r="B15" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -1396,13 +1389,13 @@
         <v>1</v>
       </c>
       <c r="I15" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="2">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -1415,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="2">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1438,46 +1431,27 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2">
-        <v>100</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="3" t="s">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="3">
-        <f ca="1">I19/H19</f>
-        <v>102.078181818182</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
+      <c r="B18" s="3">
+        <f ca="1">I18/H18</f>
+        <v>101.94976744186</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H18" s="3">
         <f ca="1">SUM(INDIRECT("H2:H"&amp;ROW()-1))</f>
-        <v>44</v>
-      </c>
-      <c r="I19" s="5">
+        <v>43</v>
+      </c>
+      <c r="I18" s="5">
         <f ca="1">SUM(INDIRECT("I2:I"&amp;ROW()-1))</f>
-        <v>4491.44</v>
+        <v>4383.84</v>
       </c>
     </row>
   </sheetData>

--- a/ka/卡记录.xlsx
+++ b/ka/卡记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,11 +71,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -699,8 +700,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1031,427 +1033,472 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="12.8888888888889"/>
+    <col min="2" max="2" width="12.8916666666667"/>
+    <col min="11" max="11" width="9.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="2">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="2">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="2">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>99</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>8</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>3</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
         <f t="shared" ref="H2:H13" si="0">SUM(C2:G2)</f>
         <v>13</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <f t="shared" ref="I2:I13" si="1">B2*H2</f>
         <v>1287</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>95</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>3</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <f t="shared" si="1"/>
         <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>99</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>120</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2">
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>106</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>110</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>108</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>106</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="3">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>114</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>2</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="3">
         <f t="shared" si="1"/>
         <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>98.76</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>9</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
         <f t="shared" si="1"/>
         <v>888.84</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>114</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>2</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="3">
         <f t="shared" si="1"/>
         <v>228</v>
       </c>
     </row>
     <row r="13" ht="13" customHeight="1" spans="1:9">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>110</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>2</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="3">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3">
         <v>100</v>
       </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
         <v>108</v>
       </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
         <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
         <v>100</v>
       </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
         <v>100</v>
       </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2">
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="3" t="s">
-        <v>15</v>
-      </c>
+    <row r="18" spans="1:11">
+      <c r="A18" s="3"/>
       <c r="B18" s="3">
-        <f ca="1">I18/H18</f>
-        <v>101.94976744186</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>88</v>
+      </c>
+      <c r="K18" s="1">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3">
+        <v>100</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>100</v>
+      </c>
+      <c r="K19" s="1">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4">
+        <f ca="1">I20/H20</f>
+        <v>101.596444444444</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H20" s="4">
         <f ca="1">SUM(INDIRECT("H2:H"&amp;ROW()-1))</f>
-        <v>43</v>
-      </c>
-      <c r="I18" s="5">
+        <v>45</v>
+      </c>
+      <c r="I20" s="6">
         <f ca="1">SUM(INDIRECT("I2:I"&amp;ROW()-1))</f>
-        <v>4383.84</v>
+        <v>4571.84</v>
       </c>
     </row>
   </sheetData>
